--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>826661.8039822311</v>
+        <v>822650.0012501345</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140338</v>
+        <v>6432656.960140346</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5272298.864649532</v>
+        <v>5272298.864649531</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>64.24468420961891</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
         <v>210.0177446442482</v>
@@ -1429,10 +1429,10 @@
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>291.2382921077276</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>89.4925343043557</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>184.7173755973105</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>373.8404012927613</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.87626856045</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>71.96559361603954</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>255.7073098165138</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>141.2682532730375</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>244.9726946029027</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.4480796640688</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.6292003204698</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>76.13756366793839</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>107.1116914499588</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2098,7 +2098,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>21.67953770952764</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>24.32699114116981</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.17422420225327</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
-        <v>206.8642064611338</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
@@ -2380,10 +2380,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>117.9616320275664</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>162.2802901214332</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
         <v>210.0177446442482</v>
@@ -2614,16 +2614,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>348.4676797617932</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2809,7 +2809,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>218.8615032353658</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>292.2496210282451</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648567</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>14.06758093157106</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>127.6623236306954</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>414.1069739121835</v>
       </c>
       <c r="D35" t="n">
-        <v>92.98228733108851</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3283,7 +3283,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>106.261837510622</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>205.5198466074703</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>103.1868077687734</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7765738915267</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>71.81981616660896</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>9.267814325144876</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3745,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>331.7414439122361</v>
       </c>
       <c r="H41" t="n">
-        <v>17.74435524915915</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>20.74982006848231</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.74745825146187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>108.6387260531044</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>139.499496530179</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>109.8154188456352</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>228.2341960094605</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1212.417437723176</v>
+        <v>894.7803300931902</v>
       </c>
       <c r="C11" t="n">
-        <v>1212.417437723176</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="D11" t="n">
-        <v>1212.417437723176</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="E11" t="n">
-        <v>1147.523817309419</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H11" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
@@ -5077,16 +5077,16 @@
         <v>1608.808787422829</v>
       </c>
       <c r="V11" t="n">
-        <v>1608.808787422829</v>
+        <v>1314.62869438472</v>
       </c>
       <c r="W11" t="n">
-        <v>1212.417437723176</v>
+        <v>1314.62869438472</v>
       </c>
       <c r="X11" t="n">
-        <v>1212.417437723176</v>
+        <v>1314.62869438472</v>
       </c>
       <c r="Y11" t="n">
-        <v>1212.417437723176</v>
+        <v>1314.62869438472</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059645</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283643</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838658</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
-        <v>992.5205257180613</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O12" t="n">
         <v>1482.454583745858</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.262669716467</v>
+        <v>616.9454789414306</v>
       </c>
       <c r="C13" t="n">
-        <v>845.2901065953833</v>
+        <v>444.9729158203465</v>
       </c>
       <c r="D13" t="n">
-        <v>681.9733337221541</v>
+        <v>281.6561429471172</v>
       </c>
       <c r="E13" t="n">
-        <v>515.7651278750076</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="F13" t="n">
-        <v>343.903353649568</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G13" t="n">
-        <v>178.5467362533892</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>481.8999867656338</v>
+        <v>708.2288136909382</v>
       </c>
       <c r="M13" t="n">
-        <v>1010.998288177278</v>
+        <v>1237.327115102583</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.526466160679</v>
+        <v>1749.855293085983</v>
       </c>
       <c r="O13" t="n">
-        <v>2003.682813232012</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.770914794524</v>
+        <v>1886.374553800867</v>
       </c>
       <c r="U13" t="n">
-        <v>2137.770914794524</v>
+        <v>1606.239215427149</v>
       </c>
       <c r="V13" t="n">
-        <v>1951.187707120473</v>
+        <v>1324.527748035178</v>
       </c>
       <c r="W13" t="n">
-        <v>1676.335303292986</v>
+        <v>1049.675344207691</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.771406738791</v>
+        <v>807.1114476534963</v>
       </c>
       <c r="Y13" t="n">
-        <v>1207.428638428533</v>
+        <v>807.1114476534963</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1572.592986300519</v>
+        <v>1673.80498830334</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.692256313819</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="D14" t="n">
-        <v>722.3996354988195</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3996354988195</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715609998</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
         <v>1626.510864636164</v>
@@ -5302,28 +5302,28 @@
         <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y14" t="n">
-        <v>1992.441350592049</v>
+        <v>1673.80498830334</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J15" t="n">
-        <v>404.465909142654</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K15" t="n">
-        <v>552.2568635109022</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333021</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M15" t="n">
         <v>1002.337654088804</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.955188520548</v>
+        <v>453.5179171725568</v>
       </c>
       <c r="C16" t="n">
-        <v>917.9826253994637</v>
+        <v>453.5179171725568</v>
       </c>
       <c r="D16" t="n">
-        <v>754.6658525262344</v>
+        <v>453.5179171725568</v>
       </c>
       <c r="E16" t="n">
-        <v>588.4576466790879</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="F16" t="n">
-        <v>416.5958724536483</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574696</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H16" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>523.2582343051843</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M16" t="n">
-        <v>1052.356535716829</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N16" t="n">
-        <v>1166.851790858349</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O16" t="n">
-        <v>1539.553111280806</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S16" t="n">
-        <v>2131.215415329222</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.723027423367</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U16" t="n">
-        <v>1891.723027423367</v>
+        <v>1478.988453256468</v>
       </c>
       <c r="V16" t="n">
-        <v>1891.723027423367</v>
+        <v>1197.276985864497</v>
       </c>
       <c r="W16" t="n">
-        <v>1749.027822097066</v>
+        <v>922.4245820370097</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.463925542871</v>
+        <v>679.8606854828148</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.121157232613</v>
+        <v>453.5179171725568</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1820.94792342712</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="C17" t="n">
-        <v>1820.94792342712</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="D17" t="n">
-        <v>1573.500757161562</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="F17" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I17" t="n">
         <v>84.39494262103608</v>
@@ -5518,13 +5518,13 @@
         <v>222.2360596072047</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
@@ -5539,28 +5539,28 @@
         <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U17" t="n">
-        <v>1820.94792342712</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V17" t="n">
-        <v>1820.94792342712</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W17" t="n">
-        <v>1820.94792342712</v>
+        <v>854.9280228494249</v>
       </c>
       <c r="X17" t="n">
-        <v>1820.94792342712</v>
+        <v>443.2080240171721</v>
       </c>
       <c r="Y17" t="n">
-        <v>1820.94792342712</v>
+        <v>42.75541829589047</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J18" t="n">
-        <v>404.465909142654</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109022</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333021</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M18" t="n">
         <v>1002.337654088804</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>251.2392550574696</v>
+        <v>751.7744195523172</v>
       </c>
       <c r="C19" t="n">
-        <v>251.2392550574696</v>
+        <v>751.7744195523172</v>
       </c>
       <c r="D19" t="n">
-        <v>251.2392550574696</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="E19" t="n">
-        <v>251.2392550574696</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F19" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G19" t="n">
         <v>251.2392550574696</v>
@@ -5670,55 +5670,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J19" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>481.8999867656338</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>1010.998288177278</v>
+        <v>1388.700612480481</v>
       </c>
       <c r="N19" t="n">
-        <v>1523.526466160679</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O19" t="n">
         <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426652</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449698</v>
+        <v>978.1171878625752</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347118</v>
+        <v>751.7744195523172</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1719.481042155954</v>
+        <v>1255.717445036651</v>
       </c>
       <c r="C20" t="n">
-        <v>1719.481042155954</v>
+        <v>1255.717445036651</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.188421340954</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="E20" t="n">
-        <v>870.211481488812</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F20" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H20" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
         <v>1332.070421635641</v>
@@ -5782,22 +5782,22 @@
         <v>2137.770914794524</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794524</v>
+        <v>1925.631778790233</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794524</v>
+        <v>1667.437443868903</v>
       </c>
       <c r="V20" t="n">
-        <v>2115.872391855607</v>
+        <v>1667.437443868903</v>
       </c>
       <c r="W20" t="n">
-        <v>1719.481042155954</v>
+        <v>1667.437443868903</v>
       </c>
       <c r="X20" t="n">
-        <v>1719.481042155954</v>
+        <v>1255.717445036651</v>
       </c>
       <c r="Y20" t="n">
-        <v>1719.481042155954</v>
+        <v>1255.717445036651</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J21" t="n">
-        <v>404.465909142654</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109022</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333021</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M21" t="n">
         <v>1002.337654088804</v>
@@ -5892,16 +5892,16 @@
         <v>402.5066837189733</v>
       </c>
       <c r="D22" t="n">
-        <v>239.189910845744</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>236.2984778718269</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>236.2984778718269</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H22" t="n">
         <v>42.75541829589048</v>
@@ -5910,16 +5910,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K22" t="n">
-        <v>244.4028516473351</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L22" t="n">
-        <v>730.286235430548</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M22" t="n">
-        <v>1010.998288177278</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N22" t="n">
         <v>1523.526466160679</v>
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>486.9714210682619</v>
+        <v>1592.592578123333</v>
       </c>
       <c r="C23" t="n">
-        <v>60.07069108156194</v>
+        <v>1165.691848136633</v>
       </c>
       <c r="D23" t="n">
-        <v>60.07069108156194</v>
+        <v>1165.691848136633</v>
       </c>
       <c r="E23" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F23" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466719</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
-        <v>726.9004528705038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1470.275255004833</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
         <v>2762.403697278422</v>
@@ -6019,22 +6019,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>2735.952153731887</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>2477.757818810558</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V23" t="n">
-        <v>2120.268403936808</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W23" t="n">
-        <v>1723.877054237154</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="X23" t="n">
-        <v>1312.157055404902</v>
+        <v>1997.929848168443</v>
       </c>
       <c r="Y23" t="n">
-        <v>906.8197853597919</v>
+        <v>1592.592578123333</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>307.1299422916359</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140357</v>
+        <v>513.3805319140356</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>757.210732869537</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1009.835798503732</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1237.327662526591</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1416.768316177413</v>
       </c>
       <c r="Q24" t="n">
         <v>1791.049965673171</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851358</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119065</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E25" t="n">
-        <v>605.77291946476</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393204</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431414</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H25" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1959.002117765196</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2439.15846483653</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2836.484215057984</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1761.365163546004</v>
+        <v>739.714908284491</v>
       </c>
       <c r="C26" t="n">
-        <v>1334.464433559304</v>
+        <v>739.714908284491</v>
       </c>
       <c r="D26" t="n">
-        <v>911.1718127443041</v>
+        <v>739.714908284491</v>
       </c>
       <c r="E26" t="n">
-        <v>485.1948728921618</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F26" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G26" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
         <v>239.551332392876</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466719</v>
+        <v>454.3844443466718</v>
       </c>
       <c r="L26" t="n">
-        <v>726.9004528705038</v>
+        <v>988.1082102371422</v>
       </c>
       <c r="M26" t="n">
-        <v>1035.273304151321</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N26" t="n">
-        <v>1349.385694421312</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O26" t="n">
-        <v>1994.591395126371</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P26" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2533.201083152476</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2533.201083152476</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W26" t="n">
-        <v>2533.201083152476</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X26" t="n">
-        <v>2181.213527837534</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y26" t="n">
-        <v>2181.213527837534</v>
+        <v>903.6343932556357</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965736</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189734</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371003</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021825</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6360,61 +6360,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851353</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D28" t="n">
-        <v>771.981125311906</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647595</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393199</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431407</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H28" t="n">
-        <v>132.763209885642</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K28" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L28" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O28" t="n">
-        <v>2517.08018148475</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S28" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1310.819375089483</v>
+        <v>2017.716759933933</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.819375089483</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="D29" t="n">
-        <v>887.5267542744834</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E29" t="n">
-        <v>887.5267542744834</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F29" t="n">
-        <v>462.4025724638836</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466719</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.273304151321</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N29" t="n">
-        <v>1349.385694421312</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O29" t="n">
-        <v>1643.826137421836</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P29" t="n">
-        <v>2093.878631620213</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.340219156767</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V29" t="n">
-        <v>2524.267993666499</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="W29" t="n">
-        <v>2127.876643966846</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="X29" t="n">
-        <v>1716.156645134593</v>
+        <v>2437.565124225463</v>
       </c>
       <c r="Y29" t="n">
-        <v>1310.819375089483</v>
+        <v>2437.565124225463</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K30" t="n">
-        <v>569.5721362965736</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189734</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,16 +6600,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851347</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119054</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E31" t="n">
-        <v>605.772919464759</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
         <v>268.554527843141</v>
@@ -6621,7 +6621,7 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705196</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K31" t="n">
         <v>431.0790168988077</v>
@@ -6639,13 +6639,13 @@
         <v>2439.15846483653</v>
       </c>
       <c r="P31" t="n">
-        <v>2836.484215057984</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
@@ -6654,19 +6654,19 @@
         <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1761.365163546004</v>
+        <v>1591.739820081791</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.464433559304</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="D32" t="n">
-        <v>911.1718127443041</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="E32" t="n">
-        <v>485.1948728921618</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F32" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
         <v>631.2805511005022</v>
@@ -6706,46 +6706,46 @@
         <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>1118.62967157813</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M32" t="n">
-        <v>1731.483012371471</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N32" t="n">
-        <v>2045.595402641462</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O32" t="n">
-        <v>2340.035845641986</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P32" t="n">
-        <v>2585.727538982948</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q32" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>3003.534554078097</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2989.324876369439</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>2592.933526669786</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X32" t="n">
-        <v>2181.213527837534</v>
+        <v>1591.739820081791</v>
       </c>
       <c r="Y32" t="n">
-        <v>2181.213527837534</v>
+        <v>1591.739820081791</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M33" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6837,19 +6837,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6876,7 +6876,7 @@
         <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2914.405931706205</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6885,25 +6885,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T34" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U34" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W34" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1667.422259516197</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="C35" t="n">
-        <v>1667.422259516197</v>
+        <v>1719.481042155954</v>
       </c>
       <c r="D35" t="n">
-        <v>1573.500757161562</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.523817309419</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F35" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
         <v>437.0691715610004</v>
@@ -6946,7 +6946,7 @@
         <v>709.5851800848322</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N35" t="n">
         <v>1332.070421635641</v>
@@ -6955,34 +6955,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="W35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="X35" t="n">
-        <v>1667.422259516197</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="Y35" t="n">
-        <v>1667.422259516197</v>
+        <v>2137.770914794523</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I36" t="n">
-        <v>86.44169614186401</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>165.4810209821281</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>716.1147343627898</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C37" t="n">
-        <v>544.1421712417058</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D37" t="n">
-        <v>380.8253983684765</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E37" t="n">
-        <v>214.6171925213301</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F37" t="n">
-        <v>42.75541829589048</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589048</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K37" t="n">
         <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>275.9756251911622</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M37" t="n">
-        <v>805.0739266028069</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.602104586207</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O37" t="n">
-        <v>1797.75845165754</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T37" t="n">
-        <v>2137.770914794524</v>
+        <v>2023.880225924553</v>
       </c>
       <c r="U37" t="n">
-        <v>1857.635576420806</v>
+        <v>2023.880225924553</v>
       </c>
       <c r="V37" t="n">
-        <v>1650.039771766795</v>
+        <v>2023.880225924553</v>
       </c>
       <c r="W37" t="n">
-        <v>1375.187367939308</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="X37" t="n">
-        <v>1132.623471385113</v>
+        <v>1506.463925542871</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.2807030748554</v>
+        <v>1280.121157232613</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.75541829589048</v>
+        <v>146.9845170522273</v>
       </c>
       <c r="C38" t="n">
-        <v>42.75541829589048</v>
+        <v>146.9845170522273</v>
       </c>
       <c r="D38" t="n">
-        <v>42.75541829589048</v>
+        <v>146.9845170522273</v>
       </c>
       <c r="E38" t="n">
-        <v>42.75541829589048</v>
+        <v>146.9845170522273</v>
       </c>
       <c r="F38" t="n">
-        <v>42.75541829589048</v>
+        <v>146.9845170522273</v>
       </c>
       <c r="G38" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103628</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
         <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
@@ -7192,34 +7192,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.003122344158</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.693451746657</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V38" t="n">
-        <v>1256.204036872906</v>
+        <v>1780.281499920773</v>
       </c>
       <c r="W38" t="n">
-        <v>859.8126871732529</v>
+        <v>1383.89015022112</v>
       </c>
       <c r="X38" t="n">
-        <v>448.0926883410002</v>
+        <v>972.170151388867</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.75541829589048</v>
+        <v>566.8328813437573</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>404.465909142654</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>761.1345483022199</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C40" t="n">
-        <v>589.1619851811358</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D40" t="n">
-        <v>589.1619851811358</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E40" t="n">
-        <v>422.9537793339894</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F40" t="n">
-        <v>251.0920051085498</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G40" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>481.8999867656338</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M40" t="n">
-        <v>1010.998288177278</v>
+        <v>1473.977330749054</v>
       </c>
       <c r="N40" t="n">
-        <v>1523.526466160679</v>
+        <v>1588.472585890574</v>
       </c>
       <c r="O40" t="n">
-        <v>2003.682813232012</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R40" t="n">
         <v>2131.215415329222</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T40" t="n">
-        <v>1976.771053098196</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U40" t="n">
-        <v>1976.771053098196</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V40" t="n">
-        <v>1695.059585706225</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.207181878738</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X40" t="n">
-        <v>1177.643285324544</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.3005170142856</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>913.5566792954996</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="C41" t="n">
-        <v>486.6559493087997</v>
+        <v>1652.24152836175</v>
       </c>
       <c r="D41" t="n">
-        <v>486.6559493087997</v>
+        <v>1228.94890754675</v>
       </c>
       <c r="E41" t="n">
-        <v>60.6790094566573</v>
+        <v>802.9719676946075</v>
       </c>
       <c r="F41" t="n">
-        <v>60.6790094566573</v>
+        <v>377.8477858840077</v>
       </c>
       <c r="G41" t="n">
-        <v>60.6790094566573</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H41" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
         <v>709.5851800848322</v>
@@ -7438,25 +7438,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>1667.437443868903</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V41" t="n">
-        <v>1309.948028995153</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W41" t="n">
-        <v>913.5566792954996</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X41" t="n">
-        <v>913.5566792954996</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y41" t="n">
-        <v>913.5566792954996</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>653.0519528483962</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
         <v>896.8821538038977</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.955188520548</v>
+        <v>944.7063968839894</v>
       </c>
       <c r="C43" t="n">
-        <v>917.9826253994637</v>
+        <v>772.7338337629054</v>
       </c>
       <c r="D43" t="n">
-        <v>754.6658525262344</v>
+        <v>609.4170608896761</v>
       </c>
       <c r="E43" t="n">
         <v>588.4576466790879</v>
@@ -7575,19 +7575,19 @@
         <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>275.9756251911622</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M43" t="n">
-        <v>805.0739266028069</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.602104586207</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O43" t="n">
-        <v>1797.75845165754</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
@@ -7596,25 +7596,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>2137.770914794524</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1898.278526888668</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U43" t="n">
-        <v>1618.14318851495</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.431721122979</v>
+        <v>1462.122697265671</v>
       </c>
       <c r="W43" t="n">
-        <v>1336.431721122979</v>
+        <v>1187.270293438184</v>
       </c>
       <c r="X43" t="n">
-        <v>1336.431721122979</v>
+        <v>944.7063968839894</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.121157232613</v>
+        <v>944.7063968839894</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.757269945333</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="C44" t="n">
-        <v>893.8565399586328</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="D44" t="n">
-        <v>893.8565399586328</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="E44" t="n">
-        <v>467.8796001064903</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589048</v>
+        <v>429.8038410388256</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
         <v>42.75541829589048</v>
@@ -7663,10 +7663,10 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
         <v>2048.8787162726</v>
@@ -7681,19 +7681,19 @@
         <v>1867.003122344158</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.003122344158</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.003122344158</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W44" t="n">
-        <v>1726.094539990442</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="X44" t="n">
-        <v>1726.094539990442</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="Y44" t="n">
-        <v>1320.757269945333</v>
+        <v>854.9280228494254</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>404.465909142654</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1037.56308114796</v>
+        <v>761.2817982511397</v>
       </c>
       <c r="C46" t="n">
-        <v>865.590518026876</v>
+        <v>589.3092351300556</v>
       </c>
       <c r="D46" t="n">
-        <v>754.6658525262344</v>
+        <v>589.3092351300556</v>
       </c>
       <c r="E46" t="n">
-        <v>588.4576466790879</v>
+        <v>423.1010292829092</v>
       </c>
       <c r="F46" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G46" t="n">
         <v>251.2392550574696</v>
@@ -7806,52 +7806,52 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L46" t="n">
-        <v>523.2582343051843</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M46" t="n">
-        <v>1052.356535716829</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.526466160679</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232012</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T46" t="n">
-        <v>1976.771053098196</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.635714724478</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V46" t="n">
-        <v>1696.635714724478</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W46" t="n">
-        <v>1696.635714724478</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.071818170284</v>
+        <v>951.4477669632054</v>
       </c>
       <c r="Y46" t="n">
-        <v>1227.729049860026</v>
+        <v>951.4477669632054</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>208.0044056307794</v>
+        <v>108.1301643813465</v>
       </c>
       <c r="M13" t="n">
         <v>417.2951947219103</v>
@@ -8862,13 +8862,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>265.0931252575128</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>272.9770683377035</v>
+        <v>231.3726567572035</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>265.0931252575128</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>208.0044056307794</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219103</v>
+        <v>298.1370800999571</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575128</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9567,10 +9567,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>166.3999940502798</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>229.8670614395828</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>439.3959099530422</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>263.846219562261</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>307.556050012651</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.7189728340888</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>263.8462195622611</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>439.3959099530423</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>354.3083411156916</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>502.710210902391</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>203.0230036898344</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>307.5560500126507</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>206.4250513711265</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K30" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.7189728340888</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>461.3324725154299</v>
       </c>
       <c r="M32" t="n">
-        <v>307.5560500126504</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.01016813891631</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K36" t="n">
-        <v>241.3988769298242</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>209.3311033197065</v>
       </c>
       <c r="P37" t="n">
-        <v>55.10188302684122</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>208.0044056307794</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219103</v>
+        <v>384.2751793611417</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>158.5724178990222</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M43" t="n">
         <v>417.2951947219103</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>55.10188302684124</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>360.277449800333</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>357.4724862440021</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>62.6762286172854</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>147.6049297224413</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>94.17697712074093</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>48.79132139407159</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
@@ -23563,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.4076287842086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>21.62667517346713</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>130.8356265161746</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>174.087000003947</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>4.835817680589741</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.635108704475158</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>164.0006939207145</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,10 +23974,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>311.9480031568909</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>332.2349830154853</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24132,19 +24132,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>140.2191326475051</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>106.5288270199637</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.153538183114492</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>289.6411668163638</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>253.3695905271815</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>59.13511908213695</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>135.0530174896472</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>115.3531778156851</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>339.8469397934419</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>279.9404752132348</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25156,10 +25156,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>8.524748774649311</v>
       </c>
       <c r="D35" t="n">
-        <v>326.0774072757612</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
         <v>210.0177446442482</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>130.8356265161751</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
-        <v>73.37450611058108</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25405,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>295.121754799725</v>
       </c>
       <c r="H38" t="n">
         <v>274.5392124624013</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>4.835817680589315</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>91.88323505560798</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
         <v>71.96559361603954</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>143.6321042835706</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>66.56711865626232</v>
       </c>
       <c r="H41" t="n">
-        <v>256.7948572132422</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>143.7963037201927</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.3318823756935</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>289.669836515394</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>252.9279396724776</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>51.86818629886181</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>11.90406157919242</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366609.83095919</v>
+        <v>366609.8309591899</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366609.83095919</v>
+        <v>366609.8309591899</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>489100.7664231205</v>
+        <v>489100.7664231206</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>489100.7664231207</v>
+        <v>489100.7664231205</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>366609.83095919</v>
+        <v>366609.8309591899</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366609.83095919</v>
+        <v>366609.8309591899</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366609.83095919</v>
+        <v>366609.8309591901</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366609.83095919</v>
+        <v>366609.8309591901</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>415973.9782741587</v>
       </c>
       <c r="C2" t="n">
-        <v>415973.9782741587</v>
+        <v>415973.9782741586</v>
       </c>
       <c r="D2" t="n">
         <v>415973.9782741587</v>
       </c>
       <c r="E2" t="n">
+        <v>247359.4010333252</v>
+      </c>
+      <c r="F2" t="n">
         <v>247359.4010333251</v>
-      </c>
-      <c r="F2" t="n">
-        <v>247359.4010333252</v>
       </c>
       <c r="G2" t="n">
         <v>247359.401033325</v>
       </c>
       <c r="H2" t="n">
-        <v>247359.4010333251</v>
+        <v>247359.4010333252</v>
       </c>
       <c r="I2" t="n">
         <v>310449.0882729056</v>
       </c>
       <c r="J2" t="n">
-        <v>310449.0882729059</v>
+        <v>310449.0882729058</v>
       </c>
       <c r="K2" t="n">
-        <v>310449.0882729056</v>
+        <v>310449.0882729057</v>
       </c>
       <c r="L2" t="n">
         <v>310449.088272906</v>
@@ -26352,10 +26352,10 @@
         <v>247359.4010333251</v>
       </c>
       <c r="O2" t="n">
-        <v>247359.401033325</v>
+        <v>247359.4010333252</v>
       </c>
       <c r="P2" t="n">
-        <v>247359.4010333251</v>
+        <v>247359.4010333252</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222537</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160775</v>
+        <v>79247.32527160789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>319793.7510853995</v>
       </c>
       <c r="E4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
       <c r="F4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
       <c r="G4" t="n">
         <v>17337.56469062523</v>
       </c>
       <c r="H4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
       <c r="I4" t="n">
+        <v>50765.91611951136</v>
+      </c>
+      <c r="J4" t="n">
         <v>50765.91611951134</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50765.91611951135</v>
       </c>
       <c r="K4" t="n">
         <v>50765.91611951134</v>
       </c>
       <c r="L4" t="n">
-        <v>50765.91611951132</v>
+        <v>50765.91611951136</v>
       </c>
       <c r="M4" t="n">
-        <v>17337.56469062524</v>
+        <v>17337.56469062523</v>
       </c>
       <c r="N4" t="n">
         <v>17337.56469062523</v>
@@ -26459,7 +26459,7 @@
         <v>17337.56469062524</v>
       </c>
       <c r="P4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
         <v>43269.71441650125</v>
@@ -26502,10 +26502,10 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
         <v>43269.71441650125</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62552.62718875922</v>
+        <v>62530.91354726287</v>
       </c>
       <c r="C6" t="n">
-        <v>62552.62718875922</v>
+        <v>62530.91354726281</v>
       </c>
       <c r="D6" t="n">
-        <v>62552.62718875927</v>
+        <v>62530.91354726293</v>
       </c>
       <c r="E6" t="n">
-        <v>-369937.5339960551</v>
+        <v>-370540.6772142437</v>
       </c>
       <c r="F6" t="n">
-        <v>186752.1219261987</v>
+        <v>186148.9787080097</v>
       </c>
       <c r="G6" t="n">
-        <v>186752.1219261985</v>
+        <v>186148.9787080097</v>
       </c>
       <c r="H6" t="n">
-        <v>186752.1219261986</v>
+        <v>186148.9787080098</v>
       </c>
       <c r="I6" t="n">
-        <v>145697.667239301</v>
+        <v>145312.0746667658</v>
       </c>
       <c r="J6" t="n">
-        <v>203253.8504197829</v>
+        <v>202868.2578472477</v>
       </c>
       <c r="K6" t="n">
-        <v>203253.8504197827</v>
+        <v>202868.2578472477</v>
       </c>
       <c r="L6" t="n">
-        <v>203253.8504197831</v>
+        <v>202868.2578472479</v>
       </c>
       <c r="M6" t="n">
-        <v>107504.7966545909</v>
+        <v>106901.6534364019</v>
       </c>
       <c r="N6" t="n">
-        <v>186752.1219261986</v>
+        <v>186148.9787080098</v>
       </c>
       <c r="O6" t="n">
-        <v>186752.1219261985</v>
+        <v>186148.9787080099</v>
       </c>
       <c r="P6" t="n">
-        <v>186752.1219261987</v>
+        <v>186148.9787080098</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
     </row>
     <row r="4">
@@ -26801,10 +26801,10 @@
         <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="H4" t="n">
         <v>534.442728698631</v>
@@ -26822,10 +26822,10 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="O4" t="n">
         <v>534.442728698631</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777377</v>
+        <v>318.0018188777382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
@@ -31767,16 +31767,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
         <v>285.7487894273646</v>
@@ -31788,7 +31788,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
         <v>8.698570601564924</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31870,7 +31870,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
         <v>0.06994718178741882</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H13" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31937,7 +31937,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
         <v>74.63830611262834</v>
@@ -31949,10 +31949,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
@@ -32004,16 +32004,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
         <v>285.7487894273646</v>
@@ -32025,7 +32025,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
         <v>8.698570601564924</v>
@@ -32074,7 +32074,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
@@ -32107,7 +32107,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
         <v>0.06994718178741882</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H16" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32174,7 +32174,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
         <v>74.63830611262834</v>
@@ -32186,10 +32186,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,7 +32262,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
         <v>8.698570601564924</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32344,7 +32344,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
         <v>0.06994718178741882</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H19" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32411,7 +32411,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
         <v>74.63830611262834</v>
@@ -32423,10 +32423,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,16 +32478,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
         <v>285.7487894273646</v>
@@ -32499,7 +32499,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
         <v>8.698570601564924</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32581,7 +32581,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741882</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H22" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,7 +32648,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
         <v>74.63830611262834</v>
@@ -32660,10 +32660,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,16 +32715,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
         <v>285.7487894273646</v>
@@ -32736,7 +32736,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
         <v>8.698570601564924</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32818,7 +32818,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741882</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H25" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,7 +32885,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
         <v>74.63830611262834</v>
@@ -32897,10 +32897,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,16 +32952,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
         <v>285.7487894273646</v>
@@ -32973,7 +32973,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
         <v>8.698570601564924</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33055,7 +33055,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
         <v>0.06994718178741882</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H28" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,7 +33122,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
         <v>74.63830611262834</v>
@@ -33134,10 +33134,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,16 +33189,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
         <v>285.7487894273646</v>
@@ -33210,7 +33210,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
         <v>8.698570601564924</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33292,7 +33292,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
         <v>0.06994718178741882</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H31" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,7 +33359,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
         <v>74.63830611262834</v>
@@ -33371,10 +33371,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,16 +33426,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
         <v>285.7487894273646</v>
@@ -33447,7 +33447,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
         <v>8.698570601564924</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33529,7 +33529,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
         <v>0.06994718178741882</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H34" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33596,7 +33596,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
         <v>74.63830611262834</v>
@@ -33608,10 +33608,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33663,16 +33663,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
         <v>285.7487894273646</v>
@@ -33684,7 +33684,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
         <v>8.698570601564924</v>
@@ -33733,7 +33733,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33766,7 +33766,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
         <v>0.06994718178741882</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H37" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33833,7 +33833,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
         <v>74.63830611262834</v>
@@ -33845,10 +33845,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33900,16 +33900,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
         <v>285.7487894273646</v>
@@ -33921,7 +33921,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
         <v>8.698570601564924</v>
@@ -33970,7 +33970,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
@@ -34003,7 +34003,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
         <v>0.06994718178741882</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H40" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34070,7 +34070,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
         <v>74.63830611262834</v>
@@ -34082,10 +34082,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -34137,16 +34137,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M41" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O41" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
         <v>285.7487894273646</v>
@@ -34158,7 +34158,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
         <v>8.698570601564924</v>
@@ -34207,7 +34207,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J42" t="n">
         <v>100.4488161921859</v>
@@ -34240,7 +34240,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
         <v>0.06994718178741882</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H43" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
@@ -34307,7 +34307,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
         <v>74.63830611262834</v>
@@ -34319,10 +34319,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
@@ -34374,28 +34374,28 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M44" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O44" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.748789427365</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q44" t="n">
         <v>214.5854405596218</v>
       </c>
       <c r="R44" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118914</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
         <v>8.698570601564924</v>
@@ -34444,7 +34444,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J45" t="n">
         <v>100.4488161921859</v>
@@ -34477,7 +34477,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
         <v>0.06994718178741882</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H46" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
@@ -34544,7 +34544,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
         <v>74.63830611262834</v>
@@ -34556,10 +34556,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
         <v>248.1734276171333</v>
@@ -35433,7 +35433,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885257</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P12" t="n">
         <v>181.2531855058807</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>82.5938681962284</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>318.6049007742622</v>
+        <v>218.7306595248293</v>
       </c>
       <c r="M13" t="n">
         <v>534.442728698631</v>
@@ -35582,13 +35582,13 @@
         <v>517.705230286263</v>
       </c>
       <c r="O13" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297618</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
         <v>248.1734276171333</v>
@@ -35670,7 +35670,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J15" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
         <v>229.7897616392516</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M16" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N16" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>376.4659802247036</v>
+        <v>334.8615686442037</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q16" t="n">
         <v>202.9212659517818</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.5938681962284</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>318.6049007742622</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>415.2846140766778</v>
       </c>
       <c r="N19" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297618</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q19" t="n">
         <v>50.0187433478434</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
         <v>248.1734276171333</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K22" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L22" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>283.5475280270005</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N22" t="n">
-        <v>517.705230286263</v>
+        <v>345.5188343098051</v>
       </c>
       <c r="O22" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>85.42378348297618</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q22" t="n">
         <v>50.0187433478434</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>750.8836385195242</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>581.1314622592218</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R23" t="n">
         <v>243.5665220198734</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885257</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
-        <v>511.3862575357972</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36457,7 +36457,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.969146960424</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R24" t="n">
         <v>42.33856763136924</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
@@ -36524,7 +36524,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
@@ -36533,10 +36533,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>168.7377161819322</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J26" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>275.268695478618</v>
+        <v>539.1149150408791</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664819</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="N26" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>651.7229300051096</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885257</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486727</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392516</v>
@@ -36694,10 +36694,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K28" t="n">
         <v>332.3742814427153</v>
@@ -36761,7 +36761,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N28" t="n">
         <v>517.705230286263</v>
@@ -36770,10 +36770,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>288.4467871728106</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664819</v>
+        <v>619.0437785791325</v>
       </c>
       <c r="N29" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>454.5984789882598</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R29" t="n">
         <v>243.5665220198734</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K30" t="n">
-        <v>414.3769175486727</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392516</v>
@@ -36934,7 +36934,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K31" t="n">
         <v>332.3742814427153</v>
@@ -36998,7 +36998,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
         <v>517.705230286263</v>
@@ -37007,10 +37007,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>168.7377161819322</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J32" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.268695478618</v>
+        <v>736.6011679940478</v>
       </c>
       <c r="M32" t="n">
-        <v>619.0437785791323</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
         <v>248.1734276171333</v>
@@ -37092,7 +37092,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
@@ -37168,10 +37168,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>378.062272217937</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
@@ -37244,10 +37244,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.02891148675971</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664821</v>
       </c>
       <c r="N35" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894185</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
         <v>248.1734276171333</v>
@@ -37329,7 +37329,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.12755337977124</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K36" t="n">
-        <v>390.6826692209841</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
         <v>229.7897616392516</v>
@@ -37408,7 +37408,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M37" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N37" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067067</v>
       </c>
       <c r="P37" t="n">
-        <v>140.5256665098174</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664821</v>
       </c>
       <c r="N38" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
         <v>248.1734276171333</v>
@@ -37566,7 +37566,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>344.9308271163654</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
         <v>229.7897616392516</v>
@@ -37645,7 +37645,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>82.5938681962284</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>318.6049007742622</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>534.442728698631</v>
+        <v>501.4227133378624</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297618</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q40" t="n">
         <v>50.0187433478434</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O41" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
         <v>248.1734276171333</v>
@@ -37803,7 +37803,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>366.9063468105371</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
         <v>229.7897616392516</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M43" t="n">
         <v>534.442728698631</v>
@@ -37955,10 +37955,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>140.5256665098174</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J44" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171336</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q44" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709496</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>344.9308271163654</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
         <v>229.7897616392516</v>
@@ -38119,7 +38119,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
-        <v>475.9292226705554</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297618</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
